--- a/SampleData/samplegen-test/TestData/TestData1.xlsx
+++ b/SampleData/samplegen-test/TestData/TestData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\jcoliz\Ofx\SampleData\samplegen-test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9619B7F-CE05-43EA-BE29-B33F8D5E40DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FFED51-1382-4B16-82FC-EFE27319C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="330" windowWidth="28800" windowHeight="15460" xr2:uid="{D78380F0-A539-4D8B-9BEC-B3C0621EF4A6}"/>
   </bookViews>
